--- a/Template_CoMoCOVID-19App_v19.xlsx
+++ b/Template_CoMoCOVID-19App_v19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A49E6-FDB8-104C-8C5C-4955AFF84B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C298E3A-5E61-ED47-9FF1-C54B4B44E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27900" windowHeight="14580" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="14160" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Interventions Param'!$A$1:$F$25</definedName>
+    <definedName name="Breakthrough_infection_probability">HIDDEN!$N$2:$N$102</definedName>
+    <definedName name="Lethality">HIDDEN!$M$2:$M$5</definedName>
+    <definedName name="Transmissibility">HIDDEN!$L$2:$L$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="501">
   <si>
     <t>Template v19</t>
   </si>
@@ -3205,9 +3208,6 @@
     </r>
   </si>
   <si>
-    <t>v19.b</t>
-  </si>
-  <si>
     <t>Added a "Transmissibility" intervention (VOC sheet)</t>
   </si>
   <si>
@@ -3215,6 +3215,15 @@
   </si>
   <si>
     <t>Added a "Breakthrough infection probability" intervention (VOC sheet)</t>
+  </si>
+  <si>
+    <t>Variants of concern(VOC) modelling</t>
+  </si>
+  <si>
+    <t>To fill out the 'Value' in the VOC sheet you need to know what the frequency of each variant is, and what effect on the relevant parameter that variant has. For example, alpha variant has 20% increased transmissibility and delta variant has 60% increased transmissibility. If at time t you have 20% Sars-CoV-2, 30% alpha and 50% delta, you can calculate RR for transmissibility as (see the formula below):</t>
+  </si>
+  <si>
+    <t>v19.d</t>
   </si>
 </sst>
 </file>
@@ -3226,12 +3235,19 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3381,6 +3397,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3539,9 +3563,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3555,7 +3579,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3597,67 +3621,67 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3666,10 +3690,10 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3679,13 +3703,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3694,13 +3718,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3710,18 +3734,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3739,10 +3763,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3751,8 +3775,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3776,11 +3800,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3796,19 +3820,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3830,13 +3872,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="2"/>
@@ -3860,8 +3898,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="E1:F18" totalsRowShown="0">
   <autoFilter ref="E1:F18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Intervention" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unit Intervention" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Intervention" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unit Intervention" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4125,10 +4163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4141,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21">
@@ -4169,320 +4207,340 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17">
-      <c r="A8" s="103" t="s">
-        <v>496</v>
+    <row r="8" spans="1:2" ht="19">
+      <c r="A8" s="113" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="103" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="103" t="s">
-        <v>498</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="103" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="103"/>
+    </row>
+    <row r="13" spans="1:2" ht="85">
+      <c r="A13" s="114" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <f>0.2*1+0.3*1.2+0.5*1.6</f>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="102" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17">
-      <c r="A13" s="103" t="s">
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="103" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34">
-      <c r="A14" s="103" t="s">
+    <row r="17" spans="1:6" ht="34">
+      <c r="A17" s="103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="102" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="89.25" customHeight="1">
-      <c r="A17" s="103" t="s">
+    <row r="20" spans="1:6" ht="89.25" customHeight="1">
+      <c r="A20" s="103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="103"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
+      <c r="A21" s="103"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="110"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="110"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="110"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="104" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="110"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="104" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="110"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="104" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F29" s="110"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="104" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F30" s="110"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="104" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F31" s="110"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="104" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F32" s="110"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="104" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F33" s="110"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="104" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F34" s="110"/>
     </row>
-    <row r="35" spans="1:6" s="98" customFormat="1">
+    <row r="35" spans="1:6">
       <c r="A35" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35"/>
-      <c r="D35"/>
+        <v>23</v>
+      </c>
       <c r="F35" s="110"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="104" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F36" s="110"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F37" s="110"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" s="98" customFormat="1">
       <c r="A38" s="104" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B38"/>
+      <c r="D38"/>
       <c r="F38" s="110"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F39" s="110"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="104" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F40" s="110"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="104" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F41" s="110"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F42" s="110"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F43" s="110"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="110"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="110"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="110"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="110"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="105" t="s">
+      <c r="F47" s="110"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="105" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="34">
-      <c r="A47" s="106" t="s">
+    <row r="50" spans="1:1" ht="34">
+      <c r="A50" s="106" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="34">
-      <c r="A48" s="107" t="s">
+    <row r="51" spans="1:1" ht="34">
+      <c r="A51" s="107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="34">
-      <c r="A49" s="107" t="s">
+    <row r="52" spans="1:1" ht="34">
+      <c r="A52" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17">
-      <c r="A50" s="107" t="s">
+    <row r="53" spans="1:1" ht="17">
+      <c r="A53" s="107" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="17">
-      <c r="A51" s="107" t="s">
+    <row r="54" spans="1:1" ht="17">
+      <c r="A54" s="107" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="105"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="108" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="105"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="108" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="34">
-      <c r="A55" s="103" t="s">
+    <row r="58" spans="1:1" ht="34">
+      <c r="A58" s="103" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="17">
-      <c r="A56" s="103" t="s">
+    <row r="59" spans="1:1" ht="17">
+      <c r="A59" s="103" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="17">
-      <c r="A57" s="103" t="s">
+    <row r="60" spans="1:1" ht="17">
+      <c r="A60" s="103" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="17">
-      <c r="A58" s="103" t="s">
+    <row r="61" spans="1:1" ht="17">
+      <c r="A61" s="103" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="34">
-      <c r="A59" s="103" t="s">
+    <row r="62" spans="1:1" ht="34">
+      <c r="A62" s="103" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="109" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="109" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="110" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="110" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="111" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="111" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="34">
-      <c r="A66" s="103" t="s">
+    <row r="69" spans="1:1" ht="34">
+      <c r="A69" s="103" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="34">
-      <c r="A67" s="103" t="s">
+    <row r="70" spans="1:1" ht="34">
+      <c r="A70" s="103" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="68">
-      <c r="A68" s="103" t="s">
+    <row r="71" spans="1:1" ht="68">
+      <c r="A71" s="103" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="103"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="111" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="103"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="111" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4494,7 +4552,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4542,7 +4600,7 @@
         <v>44255</v>
       </c>
       <c r="D2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -4563,11 +4621,11 @@
         <v>44255</v>
       </c>
       <c r="D3" s="4">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>IF(A3="","",VLOOKUP(A3,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v>RR</v>
+        <v>%</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>329</v>
@@ -4584,7 +4642,7 @@
         <v>43889</v>
       </c>
       <c r="D4" s="4">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>IF(A4="","",VLOOKUP(A4,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -4605,7 +4663,7 @@
         <v>44255</v>
       </c>
       <c r="D5" s="4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>IF(A5="","",VLOOKUP(A5,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -5282,17 +5340,16 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D87 E6:E1048576" xr:uid="{129FC4CD-6444-498F-9774-FAAAA13D1CA1}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1048576" xr:uid="{129FC4CD-6444-498F-9774-FAAAA13D1CA1}">
       <formula1>0</formula1>
       <formula2>3</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D87" xr:uid="{BD4AFB45-D840-43FC-993E-0BDE9659D31E}">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{59B54AA7-41FA-4E29-8FC0-085803525CB7}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100" xr:uid="{A6CC5939-A78C-BB46-8ED1-906DE28976E4}">
+      <formula1>INDIRECT(SUBSTITUTE(A2, " ", "_"))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5913,10 +5970,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -5956,7 +6013,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B2" s="5">
         <v>43876</v>
@@ -5969,7 +6026,7 @@
       </c>
       <c r="E2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v>contacts</v>
+        <v>%</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
@@ -6044,7 +6101,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>273</v>
+        <v>340</v>
       </c>
       <c r="B6" s="5">
         <v>43876</v>
@@ -6053,11 +6110,11 @@
         <v>43921</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>IF(A6="","",VLOOKUP(A6,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v>contacts</v>
+        <v>%</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
@@ -7180,25 +7237,38 @@
       <c r="F99" s="6"/>
       <c r="G99" s="4"/>
     </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="1" t="str">
+        <f>IF(A100="","",VLOOKUP(A100,HIDDEN!$E$2:$F$18,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F85">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>NOT(OR($A2="Vaccination",$A2="School Closures",$A2="Partial School Closures",$A2="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:F99">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>NOT(OR($A86="Vaccination",$A86="School Closures",$A86="Partial School Closures",$A86="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D99 D2:D4" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+  <conditionalFormatting sqref="F100">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>NOT(OR($A100="Vaccination",$A100="School Closures",$A100="Partial School Closures",$A100="Mass Testing"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{9609E761-512B-43A8-86FE-231DF77FCDBD}">
-      <formula1>0</formula1>
-      <formula2>3</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7210,13 +7280,13 @@
           <x14:formula1>
             <xm:f>HIDDEN!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G99</xm:sqref>
+          <xm:sqref>G2:G100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{515C1212-901A-6E43-9285-E7D8C81FFB73}">
           <x14:formula1>
             <xm:f>HIDDEN!$E$2:$E$15</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A99</xm:sqref>
+          <xm:sqref>A2:A100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7226,10 +7296,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -7238,10 +7308,14 @@
     <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>333</v>
       </c>
@@ -7257,8 +7331,17 @@
       <c r="I1" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="b">
         <v>0</v>
       </c>
@@ -7274,8 +7357,17 @@
       <c r="I2" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="b">
         <v>1</v>
       </c>
@@ -7291,8 +7383,17 @@
       <c r="I3" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="C4" s="1" t="s">
         <v>339</v>
       </c>
@@ -7302,8 +7403,17 @@
       <c r="F4" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="C5" s="1" t="s">
         <v>341</v>
       </c>
@@ -7313,8 +7423,17 @@
       <c r="F5" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="C6" s="1" t="s">
         <v>342</v>
       </c>
@@ -7324,8 +7443,11 @@
       <c r="F6" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="C7" s="1" t="s">
         <v>344</v>
       </c>
@@ -7335,8 +7457,11 @@
       <c r="F7" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="C8" s="1" t="s">
         <v>345</v>
       </c>
@@ -7346,8 +7471,11 @@
       <c r="F8" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="N8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="C9" s="1" t="s">
         <v>346</v>
       </c>
@@ -7357,8 +7485,11 @@
       <c r="F9" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="N9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="C10" s="1" t="s">
         <v>347</v>
       </c>
@@ -7368,8 +7499,11 @@
       <c r="F10" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="N10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11" s="1" t="s">
         <v>349</v>
       </c>
@@ -7379,8 +7513,11 @@
       <c r="F11" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="N11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="C12" s="1" t="s">
         <v>350</v>
       </c>
@@ -7390,8 +7527,11 @@
       <c r="F12" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="N12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="C13" s="1" t="s">
         <v>351</v>
       </c>
@@ -7401,8 +7541,11 @@
       <c r="F13" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="C14" s="1" t="s">
         <v>353</v>
       </c>
@@ -7412,8 +7555,11 @@
       <c r="F14" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="N14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="C15" s="1" t="s">
         <v>354</v>
       </c>
@@ -7423,8 +7569,11 @@
       <c r="F15" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="N15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="C16" s="1" t="s">
         <v>356</v>
       </c>
@@ -7434,8 +7583,11 @@
       <c r="F16" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="17" spans="3:6">
+      <c r="N16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
       <c r="C17" s="1" t="s">
         <v>358</v>
       </c>
@@ -7445,8 +7597,11 @@
       <c r="F17" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="N17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
       <c r="C18" s="1" t="s">
         <v>359</v>
       </c>
@@ -7454,475 +7609,730 @@
         <v>332</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
+        <v>106</v>
+      </c>
+      <c r="N18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
       <c r="C19" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
+      <c r="N19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
       <c r="C20" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="N20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
       <c r="C21" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="22" spans="3:6">
+      <c r="N21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
       <c r="C22" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="23" spans="3:6">
+      <c r="N22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
       <c r="C23" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="24" spans="3:6">
+      <c r="N23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
       <c r="C24" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="25" spans="3:6">
+      <c r="N24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
       <c r="C25" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="26" spans="3:6">
+      <c r="N25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
       <c r="C26" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="27" spans="3:6">
+      <c r="N26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
       <c r="C27" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="28" spans="3:6">
+      <c r="N27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
       <c r="C28" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="29" spans="3:6">
+      <c r="N28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
       <c r="C29" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="30" spans="3:6">
+      <c r="N29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
       <c r="C30" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="31" spans="3:6">
+      <c r="N30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
       <c r="C31" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="32" spans="3:6">
+      <c r="N31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
       <c r="C32" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="33" spans="3:3">
+      <c r="N32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14">
       <c r="C33" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="34" spans="3:3">
+      <c r="N33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14">
       <c r="C34" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="35" spans="3:3">
+      <c r="N34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14">
       <c r="C35" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="36" spans="3:3">
+      <c r="N35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14">
       <c r="C36" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="37" spans="3:3">
+      <c r="N36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
       <c r="C37" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="38" spans="3:3">
+      <c r="N37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
       <c r="C38" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="39" spans="3:3">
+      <c r="N38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14">
       <c r="C39" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="40" spans="3:3">
+      <c r="N39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14">
       <c r="C40" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="41" spans="3:3">
+      <c r="N40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14">
       <c r="C41" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="42" spans="3:3">
+      <c r="N41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14">
       <c r="C42" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="43" spans="3:3">
+      <c r="N42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14">
       <c r="C43" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="44" spans="3:3">
+      <c r="N43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14">
       <c r="C44" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="45" spans="3:3">
+      <c r="N44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14">
       <c r="C45" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="46" spans="3:3">
+      <c r="N45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14">
       <c r="C46" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="47" spans="3:3">
+      <c r="N46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14">
       <c r="C47" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="48" spans="3:3">
+      <c r="N47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14">
       <c r="C48" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="49" spans="3:3">
+      <c r="N48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14">
       <c r="C49" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="50" spans="3:3">
+      <c r="N49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14">
       <c r="C50" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="51" spans="3:3">
+      <c r="N50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14">
       <c r="C51" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="52" spans="3:3">
+      <c r="N51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14">
       <c r="C52" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="53" spans="3:3">
+      <c r="N52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14">
       <c r="C53" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="54" spans="3:3">
+      <c r="N53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14">
       <c r="C54" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="55" spans="3:3">
+      <c r="N54" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14">
       <c r="C55" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="56" spans="3:3">
+      <c r="N55" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14">
       <c r="C56" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="57" spans="3:3">
+      <c r="N56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14">
       <c r="C57" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="58" spans="3:3">
+      <c r="N57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14">
       <c r="C58" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="59" spans="3:3">
+      <c r="N58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14">
       <c r="C59" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:3">
+      <c r="N59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14">
       <c r="C60" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="61" spans="3:3">
+      <c r="N60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14">
       <c r="C61" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="62" spans="3:3">
+      <c r="N61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14">
       <c r="C62" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="63" spans="3:3">
+      <c r="N62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14">
       <c r="C63" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="64" spans="3:3">
+      <c r="N63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14">
       <c r="C64" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="65" spans="3:3">
+      <c r="N64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14">
       <c r="C65" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="66" spans="3:3">
+      <c r="N65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14">
       <c r="C66" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="67" spans="3:3">
+      <c r="N66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14">
       <c r="C67" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="68" spans="3:3">
+      <c r="N67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14">
       <c r="C68" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="69" spans="3:3">
+      <c r="N68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14">
       <c r="C69" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="70" spans="3:3">
+      <c r="N69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14">
       <c r="C70" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="71" spans="3:3">
+      <c r="N70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14">
       <c r="C71" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="72" spans="3:3">
+      <c r="N71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14">
       <c r="C72" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="73" spans="3:3">
+      <c r="N72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14">
       <c r="C73" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="74" spans="3:3">
+      <c r="N73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14">
       <c r="C74" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="75" spans="3:3">
+      <c r="N74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14">
       <c r="C75" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="76" spans="3:3">
+      <c r="N75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14">
       <c r="C76" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="77" spans="3:3">
+      <c r="N76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14">
       <c r="C77" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="78" spans="3:3">
+      <c r="N77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14">
       <c r="C78" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="79" spans="3:3">
+      <c r="N78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14">
       <c r="C79" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="80" spans="3:3">
+      <c r="N79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14">
       <c r="C80" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="81" spans="3:3">
+      <c r="N80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14">
       <c r="C81" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="82" spans="3:3">
+      <c r="N81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14">
       <c r="C82" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="83" spans="3:3">
+      <c r="N82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14">
       <c r="C83" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="84" spans="3:3">
+      <c r="N83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14">
       <c r="C84" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="85" spans="3:3">
+      <c r="N84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14">
       <c r="C85" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="86" spans="3:3">
+      <c r="N85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14">
       <c r="C86" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="87" spans="3:3">
+      <c r="N86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14">
       <c r="C87" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="88" spans="3:3">
+      <c r="N87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14">
       <c r="C88" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="89" spans="3:3">
+      <c r="N88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14">
       <c r="C89" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="90" spans="3:3">
+      <c r="N89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14">
       <c r="C90" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="91" spans="3:3">
+      <c r="N90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="3:14">
       <c r="C91" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="92" spans="3:3">
+      <c r="N91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14">
       <c r="C92" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="93" spans="3:3">
+      <c r="N92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14">
       <c r="C93" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="94" spans="3:3">
+      <c r="N93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14">
       <c r="C94" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="95" spans="3:3">
+      <c r="N94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14">
       <c r="C95" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="96" spans="3:3">
+      <c r="N95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="3:14">
       <c r="C96" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="97" spans="3:3">
+      <c r="N96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14">
       <c r="C97" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="98" spans="3:3">
+      <c r="N97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14">
       <c r="C98" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="99" spans="3:3">
+      <c r="N98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14">
       <c r="C99" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="100" spans="3:3">
+      <c r="N99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14">
       <c r="C100" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="101" spans="3:3">
+      <c r="N100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14">
       <c r="C101" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="102" spans="3:3">
+      <c r="N101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14">
       <c r="C102" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="103" spans="3:3">
+      <c r="N102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="3:14">
       <c r="C103" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:14">
       <c r="C104" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:14">
       <c r="C105" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:14">
       <c r="C106" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:14">
       <c r="C107" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:14">
       <c r="C108" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:14">
       <c r="C109" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:14">
       <c r="C110" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:14">
       <c r="C111" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:14">
       <c r="C112" s="1" t="s">
         <v>453</v>
       </c>
@@ -8149,7 +8559,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/Template_CoMoCOVID-19App_v19.xlsx
+++ b/Template_CoMoCOVID-19App_v19.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C298E3A-5E61-ED47-9FF1-C54B4B44E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6A32B8-0E36-F747-95E1-990326F41754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="14160" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="501">
   <si>
     <t>Template v19</t>
   </si>
@@ -3223,7 +3223,7 @@
     <t>To fill out the 'Value' in the VOC sheet you need to know what the frequency of each variant is, and what effect on the relevant parameter that variant has. For example, alpha variant has 20% increased transmissibility and delta variant has 60% increased transmissibility. If at time t you have 20% Sars-CoV-2, 30% alpha and 50% delta, you can calculate RR for transmissibility as (see the formula below):</t>
   </si>
   <si>
-    <t>v19.d</t>
+    <t>v19.e</t>
   </si>
 </sst>
 </file>
@@ -4166,7 +4166,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4552,7 +4552,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4600,7 +4600,7 @@
         <v>44255</v>
       </c>
       <c r="D2" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -4621,7 +4621,7 @@
         <v>44255</v>
       </c>
       <c r="D3" s="4">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>IF(A3="","",VLOOKUP(A3,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -4642,7 +4642,7 @@
         <v>43889</v>
       </c>
       <c r="D4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>IF(A4="","",VLOOKUP(A4,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -4663,7 +4663,7 @@
         <v>44255</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>IF(A5="","",VLOOKUP(A5,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -5348,8 +5348,9 @@
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100" xr:uid="{A6CC5939-A78C-BB46-8ED1-906DE28976E4}">
-      <formula1>INDIRECT(SUBSTITUTE(A2, " ", "_"))</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Value Range" prompt="Choose value:_x000a_ - between 0 and 3 for 'Transmissibility' and 'Lethality'_x000a_ - between 0 and 100 for 'Breakthrough infection probability'" sqref="D2:D100" xr:uid="{D0B6CB05-2BF1-9942-BA87-A771BD4402D5}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7296,10 +7297,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -7315,7 +7316,7 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>333</v>
       </c>
@@ -7331,17 +7332,9 @@
       <c r="I1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="b">
         <v>0</v>
       </c>
@@ -7357,17 +7350,8 @@
       <c r="I2" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="b">
         <v>1</v>
       </c>
@@ -7383,17 +7367,8 @@
       <c r="I3" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="C4" s="1" t="s">
         <v>339</v>
       </c>
@@ -7403,17 +7378,8 @@
       <c r="F4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13">
       <c r="C5" s="1" t="s">
         <v>341</v>
       </c>
@@ -7423,17 +7389,8 @@
       <c r="F5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="1">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13">
       <c r="C6" s="1" t="s">
         <v>342</v>
       </c>
@@ -7443,11 +7400,8 @@
       <c r="F6" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="C7" s="1" t="s">
         <v>344</v>
       </c>
@@ -7457,11 +7411,8 @@
       <c r="F7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="C8" s="1" t="s">
         <v>345</v>
       </c>
@@ -7471,11 +7422,8 @@
       <c r="F8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="C9" s="1" t="s">
         <v>346</v>
       </c>
@@ -7485,11 +7433,8 @@
       <c r="F9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="C10" s="1" t="s">
         <v>347</v>
       </c>
@@ -7499,11 +7444,8 @@
       <c r="F10" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="N10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="C11" s="1" t="s">
         <v>349</v>
       </c>
@@ -7513,11 +7455,8 @@
       <c r="F11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="C12" s="1" t="s">
         <v>350</v>
       </c>
@@ -7527,11 +7466,8 @@
       <c r="F12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="C13" s="1" t="s">
         <v>351</v>
       </c>
@@ -7541,11 +7477,8 @@
       <c r="F13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="C14" s="1" t="s">
         <v>353</v>
       </c>
@@ -7555,11 +7488,8 @@
       <c r="F14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13">
       <c r="C15" s="1" t="s">
         <v>354</v>
       </c>
@@ -7569,11 +7499,8 @@
       <c r="F15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="C16" s="1" t="s">
         <v>356</v>
       </c>
@@ -7583,11 +7510,8 @@
       <c r="F16" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="N16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14">
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" s="1" t="s">
         <v>358</v>
       </c>
@@ -7597,11 +7521,8 @@
       <c r="F17" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="N17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14">
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="1" t="s">
         <v>359</v>
       </c>
@@ -7611,728 +7532,473 @@
       <c r="F18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14">
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14">
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14">
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="N22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14">
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="N23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14">
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14">
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14">
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="N26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14">
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="N27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14">
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="N28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14">
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14">
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="N30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14">
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N31" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14">
+    </row>
+    <row r="32" spans="3:6">
       <c r="C32" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N32" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14">
+    </row>
+    <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="N33" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14">
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N34" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14">
+    </row>
+    <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N35" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14">
+    </row>
+    <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="N36" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14">
+    </row>
+    <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="N37" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14">
+    </row>
+    <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N38" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14">
+    </row>
+    <row r="39" spans="3:3">
       <c r="C39" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N39" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14">
+    </row>
+    <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N40" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14">
+    </row>
+    <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="N41" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14">
+    </row>
+    <row r="42" spans="3:3">
       <c r="C42" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="N42" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14">
+    </row>
+    <row r="43" spans="3:3">
       <c r="C43" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N43" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14">
+    </row>
+    <row r="44" spans="3:3">
       <c r="C44" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="N44" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14">
+    </row>
+    <row r="45" spans="3:3">
       <c r="C45" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="N45" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14">
+    </row>
+    <row r="46" spans="3:3">
       <c r="C46" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="N46" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14">
+    </row>
+    <row r="47" spans="3:3">
       <c r="C47" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N47" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14">
+    </row>
+    <row r="48" spans="3:3">
       <c r="C48" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N48" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14">
+    </row>
+    <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N49" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14">
+    </row>
+    <row r="50" spans="3:3">
       <c r="C50" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N50" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14">
+    </row>
+    <row r="51" spans="3:3">
       <c r="C51" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="N51" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14">
+    </row>
+    <row r="52" spans="3:3">
       <c r="C52" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="N52" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14">
+    </row>
+    <row r="53" spans="3:3">
       <c r="C53" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="N53" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14">
+    </row>
+    <row r="54" spans="3:3">
       <c r="C54" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="N54" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14">
+    </row>
+    <row r="55" spans="3:3">
       <c r="C55" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N55" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14">
+    </row>
+    <row r="56" spans="3:3">
       <c r="C56" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="N56" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14">
+    </row>
+    <row r="57" spans="3:3">
       <c r="C57" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="N57" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14">
+    </row>
+    <row r="58" spans="3:3">
       <c r="C58" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="N58" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14">
+    </row>
+    <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="N59" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14">
+    </row>
+    <row r="60" spans="3:3">
       <c r="C60" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="N60" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14">
+    </row>
+    <row r="61" spans="3:3">
       <c r="C61" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N61" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14">
+    </row>
+    <row r="62" spans="3:3">
       <c r="C62" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="N62" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14">
+    </row>
+    <row r="63" spans="3:3">
       <c r="C63" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="N63" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14">
+    </row>
+    <row r="64" spans="3:3">
       <c r="C64" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="N64" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14">
+    </row>
+    <row r="65" spans="3:3">
       <c r="C65" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="N65" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14">
+    </row>
+    <row r="66" spans="3:3">
       <c r="C66" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="N66" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="3:14">
+    </row>
+    <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="N67" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="3:14">
+    </row>
+    <row r="68" spans="3:3">
       <c r="C68" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="N68" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="3:14">
+    </row>
+    <row r="69" spans="3:3">
       <c r="C69" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="N69" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="3:14">
+    </row>
+    <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="N70" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="3:14">
+    </row>
+    <row r="71" spans="3:3">
       <c r="C71" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="N71" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="3:14">
+    </row>
+    <row r="72" spans="3:3">
       <c r="C72" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N72" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="3:14">
+    </row>
+    <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="N73" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="3:14">
+    </row>
+    <row r="74" spans="3:3">
       <c r="C74" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="N74" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="3:14">
+    </row>
+    <row r="75" spans="3:3">
       <c r="C75" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="N75" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="3:14">
+    </row>
+    <row r="76" spans="3:3">
       <c r="C76" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="N76" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="3:14">
+    </row>
+    <row r="77" spans="3:3">
       <c r="C77" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="N77" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="3:14">
+    </row>
+    <row r="78" spans="3:3">
       <c r="C78" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="N78" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="3:14">
+    </row>
+    <row r="79" spans="3:3">
       <c r="C79" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N79" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="3:14">
+    </row>
+    <row r="80" spans="3:3">
       <c r="C80" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="N80" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14">
+    </row>
+    <row r="81" spans="3:3">
       <c r="C81" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="N81" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14">
+    </row>
+    <row r="82" spans="3:3">
       <c r="C82" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="N82" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="3:14">
+    </row>
+    <row r="83" spans="3:3">
       <c r="C83" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N83" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14">
+    </row>
+    <row r="84" spans="3:3">
       <c r="C84" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N84" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="3:14">
+    </row>
+    <row r="85" spans="3:3">
       <c r="C85" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="N85" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="3:14">
+    </row>
+    <row r="86" spans="3:3">
       <c r="C86" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="N86" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="3:14">
+    </row>
+    <row r="87" spans="3:3">
       <c r="C87" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="N87" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="3:14">
+    </row>
+    <row r="88" spans="3:3">
       <c r="C88" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="N88" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="3:14">
+    </row>
+    <row r="89" spans="3:3">
       <c r="C89" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="N89" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14">
+    </row>
+    <row r="90" spans="3:3">
       <c r="C90" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="N90" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="3:14">
+    </row>
+    <row r="91" spans="3:3">
       <c r="C91" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="N91" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14">
+    </row>
+    <row r="92" spans="3:3">
       <c r="C92" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="N92" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="3:14">
+    </row>
+    <row r="93" spans="3:3">
       <c r="C93" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="N93" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="3:14">
+    </row>
+    <row r="94" spans="3:3">
       <c r="C94" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="N94" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14">
+    </row>
+    <row r="95" spans="3:3">
       <c r="C95" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="N95" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="3:14">
+    </row>
+    <row r="96" spans="3:3">
       <c r="C96" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="N96" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14">
+    </row>
+    <row r="97" spans="3:3">
       <c r="C97" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="N97" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="3:14">
+    </row>
+    <row r="98" spans="3:3">
       <c r="C98" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="N98" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="3:14">
+    </row>
+    <row r="99" spans="3:3">
       <c r="C99" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="N99" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="3:14">
+    </row>
+    <row r="100" spans="3:3">
       <c r="C100" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="N100" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14">
+    </row>
+    <row r="101" spans="3:3">
       <c r="C101" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="N101" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14">
+    </row>
+    <row r="102" spans="3:3">
       <c r="C102" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="N102" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="3:14">
+    </row>
+    <row r="103" spans="3:3">
       <c r="C103" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="104" spans="3:14">
+    <row r="104" spans="3:3">
       <c r="C104" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="3:14">
+    <row r="105" spans="3:3">
       <c r="C105" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="3:14">
+    <row r="106" spans="3:3">
       <c r="C106" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="107" spans="3:14">
+    <row r="107" spans="3:3">
       <c r="C107" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="3:14">
+    <row r="108" spans="3:3">
       <c r="C108" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="3:14">
+    <row r="109" spans="3:3">
       <c r="C109" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="3:14">
+    <row r="110" spans="3:3">
       <c r="C110" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="3:14">
+    <row r="111" spans="3:3">
       <c r="C111" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="3:14">
+    <row r="112" spans="3:3">
       <c r="C112" s="1" t="s">
         <v>453</v>
       </c>

--- a/Template_CoMoCOVID-19App_v19.xlsx
+++ b/Template_CoMoCOVID-19App_v19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6A32B8-0E36-F747-95E1-990326F41754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A86C8A5-434A-0C42-A52C-04CC05E07872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="14160" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7000" yWindow="500" windowWidth="20080" windowHeight="17500" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="504">
   <si>
     <t>Template v19</t>
   </si>
@@ -3223,7 +3223,16 @@
     <t>To fill out the 'Value' in the VOC sheet you need to know what the frequency of each variant is, and what effect on the relevant parameter that variant has. For example, alpha variant has 20% increased transmissibility and delta variant has 60% increased transmissibility. If at time t you have 20% Sars-CoV-2, 30% alpha and 50% delta, you can calculate RR for transmissibility as (see the formula below):</t>
   </si>
   <si>
-    <t>v19.e</t>
+    <t>1-21</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>v19.f</t>
   </si>
 </sst>
 </file>
@@ -3565,7 +3574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3741,13 +3750,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3757,12 +3760,6 @@
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3770,9 +3767,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3831,6 +3825,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4175,15 +4188,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
-        <v>500</v>
+      <c r="B1" s="95" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4203,35 +4216,35 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="97" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="108" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="98" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="98" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="98" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="103"/>
+      <c r="A12" s="98"/>
     </row>
     <row r="13" spans="1:2" ht="85">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="109" t="s">
         <v>499</v>
       </c>
     </row>
@@ -4242,32 +4255,32 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="97" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="98" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="98" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="97" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="89.25" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="98" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="103"/>
+      <c r="A21" s="98"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -4290,208 +4303,208 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="110"/>
+      <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="110"/>
+      <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="110"/>
+      <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="110"/>
+      <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="110"/>
+      <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="110"/>
+      <c r="F32" s="105"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="110"/>
+      <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="110"/>
+      <c r="F34" s="105"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="110"/>
+      <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="110"/>
+      <c r="F36" s="105"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="110"/>
-    </row>
-    <row r="38" spans="1:6" s="98" customFormat="1">
-      <c r="A38" s="104" t="s">
+      <c r="F37" s="105"/>
+    </row>
+    <row r="38" spans="1:6" s="93" customFormat="1">
+      <c r="A38" s="99" t="s">
         <v>26</v>
       </c>
       <c r="B38"/>
       <c r="D38"/>
-      <c r="F38" s="110"/>
+      <c r="F38" s="105"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="110"/>
+      <c r="F39" s="105"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="110"/>
+      <c r="F40" s="105"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="110"/>
+      <c r="F41" s="105"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="110"/>
+      <c r="F42" s="105"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="110"/>
+      <c r="F43" s="105"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="110"/>
+      <c r="F44" s="105"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="110"/>
+      <c r="F45" s="105"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="110"/>
+      <c r="F46" s="105"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="110"/>
+      <c r="F47" s="105"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="100" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="34">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="101" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="34">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="102" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="34">
-      <c r="A52" s="107" t="s">
+      <c r="A52" s="102" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="102" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="102" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="105"/>
+      <c r="A55" s="100"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="108" t="s">
+      <c r="A57" s="103" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="34">
-      <c r="A58" s="103" t="s">
+      <c r="A58" s="98" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17">
-      <c r="A59" s="103" t="s">
+      <c r="A59" s="98" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17">
-      <c r="A60" s="103" t="s">
+      <c r="A60" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17">
-      <c r="A61" s="103" t="s">
+      <c r="A61" s="98" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="34">
-      <c r="A62" s="103" t="s">
+      <c r="A62" s="98" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="104" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="105" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="111" t="s">
+      <c r="A67" s="106" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4501,25 +4514,25 @@
       </c>
     </row>
     <row r="69" spans="1:1" ht="34">
-      <c r="A69" s="103" t="s">
+      <c r="A69" s="98" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="34">
-      <c r="A70" s="103" t="s">
+      <c r="A70" s="98" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="68">
-      <c r="A71" s="103" t="s">
+      <c r="A71" s="98" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="103"/>
+      <c r="A72" s="98"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="106" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4552,7 +4565,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4594,13 +4607,13 @@
         <v>330</v>
       </c>
       <c r="B2" s="5">
-        <v>43876</v>
-      </c>
-      <c r="C2" s="80">
-        <v>44255</v>
+        <v>44409</v>
+      </c>
+      <c r="C2" s="78">
+        <v>44440</v>
       </c>
       <c r="D2" s="4">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -4612,20 +4625,20 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B3" s="5">
-        <v>43876</v>
-      </c>
-      <c r="C3" s="80">
-        <v>44255</v>
+        <v>44441</v>
+      </c>
+      <c r="C3" s="78">
+        <v>44470</v>
       </c>
       <c r="D3" s="4">
-        <v>25</v>
+        <v>1.2</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>IF(A3="","",VLOOKUP(A3,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v>%</v>
+        <v>RR</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>329</v>
@@ -4633,16 +4646,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="5">
-        <v>43876</v>
-      </c>
-      <c r="C4" s="80">
-        <v>43889</v>
+        <v>44471</v>
+      </c>
+      <c r="C4" s="78">
+        <v>44501</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>IF(A4="","",VLOOKUP(A4,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -4654,16 +4667,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B5" s="5">
-        <v>43891</v>
-      </c>
-      <c r="C5" s="80">
-        <v>44255</v>
+        <v>44502</v>
+      </c>
+      <c r="C5" s="78">
+        <v>44742</v>
       </c>
       <c r="D5" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>IF(A5="","",VLOOKUP(A5,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -4674,60 +4687,140 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44440</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44470</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44471</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44501</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44502</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44742</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44440</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44470</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44471</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44501</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44502</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44866</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4"/>
@@ -5388,8 +5481,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C34" sqref="C3:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5974,7 +6067,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -6014,7 +6107,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B2" s="5">
         <v>43876</v>
@@ -6027,7 +6120,7 @@
       </c>
       <c r="E2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v>%</v>
+        <v>contacts</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
@@ -6036,7 +6129,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B3" s="5">
         <v>43876</v>
@@ -6058,20 +6151,20 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B4" s="5">
-        <v>43876</v>
+        <v>43937</v>
       </c>
       <c r="C4" s="5">
-        <v>43921</v>
+        <v>44286</v>
       </c>
       <c r="D4" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v>%</v>
+        <v>contacts</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
@@ -6080,7 +6173,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B5" s="5">
         <v>43876</v>
@@ -6089,7 +6182,7 @@
         <v>43921</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>IF(A5="","",VLOOKUP(A5,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -6102,16 +6195,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="B6" s="5">
         <v>43876</v>
       </c>
       <c r="C6" s="5">
-        <v>43921</v>
+        <v>43936</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>IF(A6="","",VLOOKUP(A6,HIDDEN!$E$2:$F$18,2,FALSE))</f>
@@ -6119,128 +6212,234 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43937</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D7" s="4">
+        <v>60</v>
+      </c>
       <c r="E7" s="1" t="str">
         <f>IF(A7="","",VLOOKUP(A7,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
+        <v>%</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43876</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43921</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60</v>
+      </c>
       <c r="E8" s="1" t="str">
         <f>IF(A8="","",VLOOKUP(A8,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
+        <v>%</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43876</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43921</v>
+      </c>
+      <c r="D9" s="4">
+        <v>60</v>
+      </c>
       <c r="E9" s="1" t="str">
         <f>IF(A9="","",VLOOKUP(A9,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
+        <v>contacts</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43876</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43921</v>
+      </c>
+      <c r="D10" s="4">
+        <v>50</v>
+      </c>
       <c r="E10" s="1" t="str">
         <f>IF(A10="","",VLOOKUP(A10,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
+        <v>%</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43876</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="4">
+        <v>100</v>
+      </c>
       <c r="E11" s="1" t="str">
         <f>IF(A11="","",VLOOKUP(A11,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
+        <v>%</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43866</v>
+      </c>
+      <c r="C12" s="5">
+        <v>43890</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
       <c r="E12" s="1" t="str">
         <f>IF(A12="","",VLOOKUP(A12,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
+        <v>%</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43891</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44012</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30</v>
+      </c>
       <c r="E13" s="1" t="str">
         <f>IF(A13="","",VLOOKUP(A13,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
+        <v>thousand tests</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43891</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44089</v>
+      </c>
+      <c r="D14" s="4">
+        <v>15</v>
+      </c>
       <c r="E14" s="1" t="str">
         <f>IF(A14="","",VLOOKUP(A14,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
+        <v>%</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43941</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44095</v>
+      </c>
+      <c r="D15" s="4">
+        <v>30</v>
+      </c>
       <c r="E15" s="1" t="str">
         <f>IF(A15="","",VLOOKUP(A15,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
+        <v>%</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43983</v>
+      </c>
+      <c r="C16" s="5">
+        <v>44012</v>
+      </c>
+      <c r="D16" s="4">
+        <v>70</v>
+      </c>
       <c r="E16" s="1" t="str">
         <f>IF(A16="","",VLOOKUP(A16,HIDDEN!$E$2:$F$18,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
+        <v>%</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4"/>
@@ -8224,8 +8423,8 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -8236,25 +8435,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="68">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="87" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5">
-        <v>43830</v>
+        <v>44262</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -8262,10 +8461,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5">
-        <v>43831</v>
+        <v>44263</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -8273,10 +8472,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5">
-        <v>43832</v>
+        <v>44264</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -8284,10 +8483,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5">
-        <v>43833</v>
+        <v>44265</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -8295,10 +8494,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5">
-        <v>43834</v>
+        <v>44266</v>
       </c>
       <c r="B6" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -8306,10 +8505,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5">
-        <v>43835</v>
+        <v>44267</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -8317,10 +8516,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5">
-        <v>43836</v>
+        <v>44268</v>
       </c>
       <c r="B8" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -8328,10 +8527,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5">
-        <v>43837</v>
+        <v>44269</v>
       </c>
       <c r="B9" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -8339,10 +8538,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5">
-        <v>43838</v>
+        <v>44270</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -8350,10 +8549,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5">
-        <v>43839</v>
+        <v>44271</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -8361,10 +8560,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5">
-        <v>43840</v>
+        <v>44272</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -8372,10 +8571,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5">
-        <v>43841</v>
+        <v>44273</v>
       </c>
       <c r="B13" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -8383,10 +8582,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5">
-        <v>43842</v>
+        <v>44274</v>
       </c>
       <c r="B14" s="4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -8394,10 +8593,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5">
-        <v>43843</v>
+        <v>44275</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -8405,161 +8604,161 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5">
-        <v>43844</v>
+        <v>44276</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="5">
-        <v>43845</v>
+        <v>44277</v>
       </c>
       <c r="B17" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="5">
-        <v>43846</v>
+        <v>44278</v>
       </c>
       <c r="B18" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="5">
-        <v>43847</v>
+        <v>44279</v>
       </c>
       <c r="B19" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="5">
-        <v>43848</v>
+        <v>44280</v>
       </c>
       <c r="B20" s="4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="5">
-        <v>43849</v>
+        <v>44281</v>
       </c>
       <c r="B21" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="5">
-        <v>43850</v>
+        <v>44282</v>
       </c>
       <c r="B22" s="4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="5">
-        <v>43851</v>
+        <v>44283</v>
       </c>
       <c r="B23" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="5">
-        <v>43852</v>
+        <v>44284</v>
       </c>
       <c r="B24" s="4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="5">
-        <v>43853</v>
+        <v>44285</v>
       </c>
       <c r="B25" s="4">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="5">
-        <v>43854</v>
+        <v>44286</v>
       </c>
       <c r="B26" s="4">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="5">
-        <v>43855</v>
+        <v>44287</v>
       </c>
       <c r="B27" s="4">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="5">
-        <v>43856</v>
+        <v>44288</v>
       </c>
       <c r="B28" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="5">
-        <v>43857</v>
+        <v>44289</v>
       </c>
       <c r="B29" s="4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="5">
-        <v>43858</v>
+        <v>44290</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -8568,23 +8767,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="5">
-        <v>43859</v>
+        <v>44291</v>
       </c>
       <c r="B31" s="4">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="5">
-        <v>43860</v>
+        <v>44292</v>
       </c>
       <c r="B32" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -8592,10 +8794,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5">
-        <v>43861</v>
+        <v>44293</v>
       </c>
       <c r="B33" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -8603,10 +8805,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5">
-        <v>43862</v>
+        <v>44294</v>
       </c>
       <c r="B34" s="4">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -8614,10 +8816,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5">
-        <v>43863</v>
+        <v>44295</v>
       </c>
       <c r="B35" s="4">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -9393,13 +9595,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="126" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="91" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9407,10 +9609,10 @@
       <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="92">
         <v>0.6</v>
       </c>
-      <c r="C2" s="97">
+      <c r="C2" s="92">
         <v>0.1</v>
       </c>
     </row>
@@ -9418,10 +9620,10 @@
       <c r="A3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="97">
+      <c r="B3" s="92">
         <v>0.6</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="92">
         <v>0.1</v>
       </c>
     </row>
@@ -9429,10 +9631,10 @@
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="97">
+      <c r="B4" s="92">
         <v>0.6</v>
       </c>
-      <c r="C4" s="97">
+      <c r="C4" s="92">
         <v>0.1</v>
       </c>
     </row>
@@ -9440,10 +9642,10 @@
       <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="92">
         <v>0.6</v>
       </c>
-      <c r="C5" s="97">
+      <c r="C5" s="92">
         <v>0.1</v>
       </c>
     </row>
@@ -9451,10 +9653,10 @@
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="92">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="97">
+      <c r="C6" s="92">
         <v>0.5</v>
       </c>
     </row>
@@ -9462,10 +9664,10 @@
       <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="92">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="92">
         <v>0.5</v>
       </c>
     </row>
@@ -9473,10 +9675,10 @@
       <c r="A8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="92">
         <v>1.9</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="92">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -9484,10 +9686,10 @@
       <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="97">
+      <c r="B9" s="92">
         <v>1.9</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="92">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -9495,10 +9697,10 @@
       <c r="A10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="97">
+      <c r="B10" s="92">
         <v>3.3</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="92">
         <v>1.4</v>
       </c>
     </row>
@@ -9506,10 +9708,10 @@
       <c r="A11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="97">
+      <c r="B11" s="92">
         <v>3.3</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="92">
         <v>1.4</v>
       </c>
     </row>
@@ -9517,10 +9719,10 @@
       <c r="A12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="92">
         <v>6.5</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="92">
         <v>2.9</v>
       </c>
     </row>
@@ -9528,10 +9730,10 @@
       <c r="A13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="97">
+      <c r="B13" s="92">
         <v>6.5</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="92">
         <v>2.9</v>
       </c>
     </row>
@@ -9539,10 +9741,10 @@
       <c r="A14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="92">
         <v>12.6</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="92">
         <v>5.8</v>
       </c>
     </row>
@@ -9550,10 +9752,10 @@
       <c r="A15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B15" s="92">
         <v>12.6</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="92">
         <v>5.8</v>
       </c>
     </row>
@@ -9561,10 +9763,10 @@
       <c r="A16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B16" s="92">
         <v>21</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="92">
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -9572,10 +9774,10 @@
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B17" s="92">
         <v>21</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="92">
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -9583,10 +9785,10 @@
       <c r="A18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="97">
+      <c r="B18" s="92">
         <v>31.6</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="92">
         <v>26.2</v>
       </c>
     </row>
@@ -9594,10 +9796,10 @@
       <c r="A19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="97">
+      <c r="B19" s="92">
         <v>31.6</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="92">
         <v>26.2</v>
       </c>
     </row>
@@ -9605,10 +9807,10 @@
       <c r="A20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="97">
+      <c r="B20" s="92">
         <v>31.6</v>
       </c>
-      <c r="C20" s="97">
+      <c r="C20" s="92">
         <v>26.2</v>
       </c>
     </row>
@@ -9616,10 +9818,10 @@
       <c r="A21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="97">
+      <c r="B21" s="92">
         <v>31.6</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="92">
         <v>26.2</v>
       </c>
     </row>
@@ -9627,10 +9829,10 @@
       <c r="A22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="97">
+      <c r="B22" s="92">
         <v>31.6</v>
       </c>
-      <c r="C22" s="97">
+      <c r="C22" s="92">
         <v>26.2</v>
       </c>
     </row>
@@ -9658,25 +9860,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12" style="91" customWidth="1"/>
-    <col min="2" max="2" width="14" style="91" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="91" customWidth="1"/>
-    <col min="4" max="5" width="11" style="91"/>
-    <col min="6" max="6" width="11" style="91" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="91"/>
+    <col min="1" max="1" width="12" style="86" customWidth="1"/>
+    <col min="2" max="2" width="14" style="86" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="86" customWidth="1"/>
+    <col min="4" max="5" width="11" style="86"/>
+    <col min="6" max="6" width="11" style="86" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="68">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="87" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9684,13 +9886,13 @@
       <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="93">
+      <c r="B2" s="88">
         <v>3924000</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="89">
         <v>0</v>
       </c>
-      <c r="D2" s="94">
+      <c r="D2" s="89">
         <v>2.3722458400227202E-6</v>
       </c>
     </row>
@@ -9698,13 +9900,13 @@
       <c r="A3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="93">
+      <c r="B3" s="88">
         <v>4120000</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="89">
         <v>0</v>
       </c>
-      <c r="D3" s="94">
+      <c r="D3" s="89">
         <v>1.32905378016121E-7</v>
       </c>
     </row>
@@ -9712,13 +9914,13 @@
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="88">
         <v>3956000</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="89">
         <v>0</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="89">
         <v>2.7683021103459102E-7</v>
       </c>
     </row>
@@ -9726,13 +9928,13 @@
       <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B5" s="88">
         <v>3686000</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="89">
         <v>1.82721457849836E-5</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="89">
         <v>5.9421612308889897E-7</v>
       </c>
     </row>
@@ -9740,13 +9942,13 @@
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="88">
         <v>4075000</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="89">
         <v>7.3367682442901998E-5</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="89">
         <v>9.4061131337053795E-7</v>
       </c>
     </row>
@@ -9754,13 +9956,13 @@
       <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="88">
         <v>4484000</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="89">
         <v>1.2968766886415199E-4</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="89">
         <v>1.22116449024625E-6</v>
       </c>
     </row>
@@ -9768,13 +9970,13 @@
       <c r="A8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="88">
         <v>4707000</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="89">
         <v>1.4518112523224401E-4</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="89">
         <v>1.74496544750293E-6</v>
       </c>
     </row>
@@ -9782,13 +9984,13 @@
       <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="88">
         <v>4588000</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="89">
         <v>8.5692103973881797E-5</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="89">
         <v>2.3869666845092401E-6</v>
       </c>
     </row>
@@ -9796,13 +9998,13 @@
       <c r="A10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="88">
         <v>4308000</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="89">
         <v>1.9320024124609101E-5</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="89">
         <v>3.9402680780452703E-6</v>
       </c>
     </row>
@@ -9810,13 +10012,13 @@
       <c r="A11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="88">
         <v>4296000</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="89">
         <v>1.2746046495028399E-6</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="89">
         <v>5.9906418526633501E-6</v>
       </c>
     </row>
@@ -9824,13 +10026,13 @@
       <c r="A12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="88">
         <v>4635000</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="89">
         <v>0</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="89">
         <v>8.5059441930317695E-6</v>
       </c>
     </row>
@@ -9838,13 +10040,13 @@
       <c r="A13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="88">
         <v>4539000</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="89">
         <v>0</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="89">
         <v>1.26668575743058E-5</v>
       </c>
     </row>
@@ -9852,13 +10054,13 @@
       <c r="A14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="93">
+      <c r="B14" s="88">
         <v>3905000</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="89">
         <v>0</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="89">
         <v>2.0472533414662599E-5</v>
       </c>
     </row>
@@ -9866,13 +10068,13 @@
       <c r="A15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="88">
         <v>3382000</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="89">
         <v>0</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="89">
         <v>3.4000512436294603E-5</v>
       </c>
     </row>
@@ -9880,13 +10082,13 @@
       <c r="A16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="93">
+      <c r="B16" s="88">
         <v>3388000</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="89">
         <v>0</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="89">
         <v>4.9617484749088298E-5</v>
       </c>
     </row>
@@ -9894,13 +10096,13 @@
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93">
+      <c r="B17" s="88">
         <v>2442000</v>
       </c>
-      <c r="C17" s="94">
+      <c r="C17" s="89">
         <v>0</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="89">
         <v>8.7449779441565906E-5</v>
       </c>
     </row>
@@ -9908,13 +10110,13 @@
       <c r="A18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="93">
+      <c r="B18" s="88">
         <v>1737000</v>
       </c>
-      <c r="C18" s="94">
+      <c r="C18" s="89">
         <v>0</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="89">
         <v>1.6171761126065301E-4</v>
       </c>
     </row>
@@ -9922,13 +10124,13 @@
       <c r="A19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="93">
+      <c r="B19" s="88">
         <v>1078000</v>
       </c>
-      <c r="C19" s="94">
+      <c r="C19" s="89">
         <v>0</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="89">
         <v>2.9461103089733202E-4</v>
       </c>
     </row>
@@ -9936,13 +10138,13 @@
       <c r="A20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="93">
+      <c r="B20" s="88">
         <v>491000</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="89">
         <v>0</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="89">
         <v>4.9738551978041395E-4</v>
       </c>
     </row>
@@ -9950,13 +10152,13 @@
       <c r="A21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="93">
+      <c r="B21" s="88">
         <v>130000</v>
       </c>
-      <c r="C21" s="94">
+      <c r="C21" s="89">
         <v>0</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="89">
         <v>8.9717264255251901E-4</v>
       </c>
     </row>
@@ -9964,13 +10166,13 @@
       <c r="A22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="93">
+      <c r="B22" s="88">
         <v>16000</v>
       </c>
-      <c r="C22" s="94">
+      <c r="C22" s="89">
         <v>0</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="89">
         <v>7.2895277207392197E-3</v>
       </c>
     </row>
@@ -9994,8 +10196,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -10033,7 +10235,7 @@
       <c r="A2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="78">
         <v>43862</v>
       </c>
       <c r="C2" s="52"/>
@@ -10049,8 +10251,8 @@
       <c r="A3" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="80">
-        <v>44255</v>
+      <c r="B3" s="110">
+        <v>44620</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -10065,8 +10267,8 @@
       <c r="A4" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80">
         <v>10</v>
       </c>
       <c r="D4" s="52" t="s">
@@ -10075,7 +10277,7 @@
       <c r="E4" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="85" t="s">
         <v>104</v>
       </c>
     </row>
@@ -10083,8 +10285,8 @@
       <c r="A5" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="83">
+      <c r="B5" s="79"/>
+      <c r="C5" s="111">
         <v>0</v>
       </c>
       <c r="D5" s="52" t="s">
@@ -10093,7 +10295,7 @@
       <c r="E5" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="85" t="s">
         <v>108</v>
       </c>
     </row>
@@ -10102,7 +10304,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="84">
+      <c r="C6" s="112">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="D6" s="52"/>
@@ -10118,7 +10320,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="84">
+      <c r="C7" s="112">
         <v>2.5</v>
       </c>
       <c r="D7" s="52" t="s">
@@ -10136,7 +10338,7 @@
         <v>113</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="84">
+      <c r="C8" s="112">
         <v>10</v>
       </c>
       <c r="D8" s="52" t="s">
@@ -10154,7 +10356,7 @@
         <v>115</v>
       </c>
       <c r="B9" s="52"/>
-      <c r="C9" s="84">
+      <c r="C9" s="112">
         <v>90</v>
       </c>
       <c r="D9" s="52" t="s">
@@ -10163,7 +10365,7 @@
       <c r="E9" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="85" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10172,7 +10374,7 @@
         <v>117</v>
       </c>
       <c r="B10" s="52"/>
-      <c r="C10" s="84">
+      <c r="C10" s="112">
         <v>90</v>
       </c>
       <c r="D10" s="52" t="s">
@@ -10181,7 +10383,7 @@
       <c r="E10" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="85" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10190,7 +10392,7 @@
         <v>119</v>
       </c>
       <c r="B11" s="52"/>
-      <c r="C11" s="84">
+      <c r="C11" s="112">
         <v>90</v>
       </c>
       <c r="D11" s="52" t="s">
@@ -10199,7 +10401,7 @@
       <c r="E11" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="85" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10208,7 +10410,7 @@
         <v>121</v>
       </c>
       <c r="B12" s="52"/>
-      <c r="C12" s="84">
+      <c r="C12" s="112">
         <v>0</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -10217,7 +10419,7 @@
       <c r="E12" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="85" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10226,7 +10428,7 @@
         <v>123</v>
       </c>
       <c r="B13" s="52"/>
-      <c r="C13" s="84">
+      <c r="C13" s="112">
         <v>0</v>
       </c>
       <c r="D13" s="52" t="s">
@@ -10235,7 +10437,7 @@
       <c r="E13" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="85" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10244,7 +10446,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="52"/>
-      <c r="C14" s="84">
+      <c r="C14" s="112">
         <v>0</v>
       </c>
       <c r="D14" s="52" t="s">
@@ -10253,7 +10455,7 @@
       <c r="E14" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="85" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10262,7 +10464,7 @@
         <v>127</v>
       </c>
       <c r="B15" s="52"/>
-      <c r="C15" s="84">
+      <c r="C15" s="112">
         <v>0</v>
       </c>
       <c r="D15" s="52" t="s">
@@ -10271,7 +10473,7 @@
       <c r="E15" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="85" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10280,7 +10482,7 @@
         <v>129</v>
       </c>
       <c r="B16" s="52"/>
-      <c r="C16" s="84">
+      <c r="C16" s="112">
         <v>0</v>
       </c>
       <c r="D16" s="52" t="s">
@@ -10289,7 +10491,7 @@
       <c r="E16" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="85" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10298,7 +10500,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="52"/>
-      <c r="C17" s="84">
+      <c r="C17" s="112">
         <v>0</v>
       </c>
       <c r="D17" s="52" t="s">
@@ -10307,7 +10509,7 @@
       <c r="E17" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="90" t="s">
+      <c r="F17" s="85" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10316,7 +10518,7 @@
         <v>133</v>
       </c>
       <c r="B18" s="52"/>
-      <c r="C18" s="84">
+      <c r="C18" s="112">
         <v>0</v>
       </c>
       <c r="D18" s="52" t="s">
@@ -10325,7 +10527,7 @@
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="85" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10334,7 +10536,7 @@
         <v>135</v>
       </c>
       <c r="B19" s="52"/>
-      <c r="C19" s="84">
+      <c r="C19" s="112">
         <v>10</v>
       </c>
       <c r="D19" s="52" t="s">
@@ -10343,7 +10545,7 @@
       <c r="E19" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="85" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10352,7 +10554,7 @@
         <v>137</v>
       </c>
       <c r="B20" s="52"/>
-      <c r="C20" s="84">
+      <c r="C20" s="112">
         <v>10</v>
       </c>
       <c r="D20" s="52" t="s">
@@ -10361,77 +10563,77 @@
       <c r="E20" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="90" t="s">
+      <c r="F20" s="85" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87">
+      <c r="B21" s="82"/>
+      <c r="C21" s="83">
         <v>1</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="90" t="s">
+      <c r="D21" s="82"/>
+      <c r="E21" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="90" t="s">
+      <c r="F21" s="85" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="84">
+      <c r="B22" s="82"/>
+      <c r="C22" s="112">
         <v>0.1</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="90" t="s">
+      <c r="D22" s="82"/>
+      <c r="E22" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="90" t="s">
+      <c r="F22" s="85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="88">
+      <c r="B23" s="82"/>
+      <c r="C23" s="113">
         <v>5</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="90" t="s">
+      <c r="E23" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="90" t="s">
+      <c r="F23" s="85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="83">
         <v>100</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="90" t="s">
+      <c r="F24" s="85" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C20" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C20" xr:uid="{4130A2C5-C192-A44A-A042-7A8498EC591C}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -10446,15 +10648,15 @@
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{4593507D-1920-A94C-971E-C5905AECDC1A}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{00000000-0002-0000-0400-000005000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{6F02E2B9-6555-804A-89DE-68BEBC769571}">
       <formula1>0.01</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{00000000-0002-0000-0400-000006000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{2830BAE1-B611-104F-B5C8-2D79AC58C599}">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -10589,8 +10791,8 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -10625,10 +10827,10 @@
       <c r="A2" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="77">
+      <c r="B2" s="114">
         <v>50</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>106</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -10642,10 +10844,10 @@
       <c r="A3" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="114">
         <v>3.5</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>160</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -10659,10 +10861,10 @@
       <c r="A4" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="114">
         <v>4.5</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>160</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -10676,10 +10878,10 @@
       <c r="A5" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="114">
         <v>1</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="9" t="s">
         <v>165</v>
       </c>
@@ -10691,10 +10893,10 @@
       <c r="A6" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="114">
         <v>0</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="77" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -10708,10 +10910,10 @@
       <c r="A7" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="114">
         <v>150</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="77" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -10725,10 +10927,10 @@
       <c r="A8" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="114">
         <v>15</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -10742,10 +10944,10 @@
       <c r="A9" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="114">
         <v>25</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -10759,10 +10961,10 @@
       <c r="A10" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="114">
         <v>40</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="77" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -10776,7 +10978,7 @@
       <c r="A11" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="115">
         <v>50</v>
       </c>
       <c r="C11" s="43" t="s">
@@ -10797,27 +10999,27 @@
     <row r="25" s="75" customFormat="1"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{A92333EC-CF6E-0C42-A87C-6A830A8BE19C}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{49381168-42E6-F848-8EA5-83841834766F}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{94D55DB3-588A-DC44-93F9-68EB1CFCD53E}">
       <formula1>0.5</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{EC923785-08FA-C346-8330-D95B9AFD0DA3}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B11" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6 B9:B11" xr:uid="{0632CE77-F06C-D247-847B-0A97854A3224}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0600-000005000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{B4315BBB-0931-CD44-ABA3-74A08FBC0561}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -10834,7 +11036,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -10919,7 +11121,7 @@
       <c r="A5" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -10936,7 +11138,7 @@
       <c r="A6" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -10950,7 +11152,7 @@
       <c r="A7" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="116">
         <v>15</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -10967,7 +11169,7 @@
       <c r="A8" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="116">
         <v>20</v>
       </c>
       <c r="C8" s="43" t="s">
@@ -10984,7 +11186,7 @@
       <c r="A9" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="116">
         <v>50</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -11001,7 +11203,7 @@
       <c r="A10" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="116">
         <v>50</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -11018,7 +11220,7 @@
       <c r="A11" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="116">
         <v>30</v>
       </c>
       <c r="C11" s="43" t="s">
@@ -11035,7 +11237,7 @@
       <c r="A12" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="116">
         <v>40</v>
       </c>
       <c r="C12" s="43" t="s">
@@ -11052,7 +11254,7 @@
       <c r="A13" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="116">
         <v>75</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -11069,7 +11271,7 @@
       <c r="A14" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B14" s="116">
         <v>75</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -11086,7 +11288,7 @@
       <c r="A15" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -11103,7 +11305,7 @@
       <c r="A16" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>90</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -11120,7 +11322,7 @@
       <c r="A17" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>90</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -11137,7 +11339,7 @@
       <c r="A18" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -11154,7 +11356,7 @@
       <c r="A19" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>90</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -11171,7 +11373,7 @@
       <c r="A20" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -11188,7 +11390,7 @@
       <c r="A21" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -11205,7 +11407,7 @@
       <c r="A22" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -11220,22 +11422,22 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B20:B22" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B20:B22" xr:uid="{6CC3A068-E3A0-F345-AF8D-F3A60BE270FE}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{E49DD2D0-45E2-DA4A-B809-BD8A1C3E26CE}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{21CC3FB0-A555-5A4B-9BD3-ED8C45B9276F}">
       <formula1>0.1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5 B7:B19" xr:uid="{00000000-0002-0000-0700-000003000000}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B5 B7:B19" xr:uid="{76A4C31F-B25F-B744-856F-DAE5C8E7D083}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0700-000004000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{ABBC1527-A2EC-D94D-997B-297BAC7D67DE}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -11250,8 +11452,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B28" sqref="B10:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -11290,7 +11492,7 @@
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="107" t="s">
         <v>494</v>
       </c>
       <c r="B3" s="56">
@@ -11637,7 +11839,7 @@
         <v>260</v>
       </c>
       <c r="B25" s="72">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>170</v>
@@ -11654,7 +11856,7 @@
         <v>262</v>
       </c>
       <c r="B26" s="72">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>170</v>
@@ -11689,8 +11891,7 @@
         <v>266</v>
       </c>
       <c r="B28" s="72">
-        <f>$B$4</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>106</v>

--- a/Template_CoMoCOVID-19App_v19.xlsx
+++ b/Template_CoMoCOVID-19App_v19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A86C8A5-434A-0C42-A52C-04CC05E07872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC43E77A-82B4-194D-BD41-FD6F13E74537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="500" windowWidth="20080" windowHeight="17500" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27080" windowHeight="17500" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Interventions Param'!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Vaccination Param'!$B$10:$B$28</definedName>
     <definedName name="Breakthrough_infection_probability">HIDDEN!$N$2:$N$102</definedName>
     <definedName name="Lethality">HIDDEN!$M$2:$M$5</definedName>
     <definedName name="Transmissibility">HIDDEN!$L$2:$L$5</definedName>
@@ -3232,7 +3233,7 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>v19.f</t>
+    <t>v19.g</t>
   </si>
 </sst>
 </file>
@@ -3574,7 +3575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3844,6 +3845,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11452,8 +11456,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B10:B28"/>
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -11890,7 +11894,8 @@
       <c r="A28" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="117">
+        <f>100-B19</f>
         <v>100</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -11910,6 +11915,7 @@
       <c r="A30" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="B10:B28" xr:uid="{00000000-0001-0000-0800-000000000000}"/>
   <dataValidations count="5">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B26" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0.08</formula1>
